--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BCE91C1-E22E-4F81-B0FE-C346111C6C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ADF8F8-3FCE-456E-9B9D-730EF457A2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1143CB87-DFAC-4231-B447-610C66810365}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
   <si>
     <t>順番</t>
   </si>
@@ -99,9 +99,6 @@
     <t>ユーザー名</t>
   </si>
   <si>
-    <t>表示名など</t>
-  </si>
-  <si>
     <t>mail</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
   </si>
   <si>
     <t>一意制約あり</t>
-  </si>
-  <si>
-    <t>password</t>
   </si>
   <si>
     <t>パスワード</t>
@@ -250,16 +244,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>収支目標テーブル(goal)</t>
-    <rPh sb="0" eb="2">
-      <t>シュウシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -294,9 +278,6 @@
   </si>
   <si>
     <t>'unread'（未読）、'read'（既読）、'resolved'（対応済）など</t>
-  </si>
-  <si>
-    <t>reply_message</t>
   </si>
   <si>
     <t>管理者返信内容</t>
@@ -322,6 +303,72 @@
       <t>ア</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>表示名など</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>収支目標テーブル(budget_goals)</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>reply_message</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON UPDATE CURRENT_TIMESTAMP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+  </si>
+  <si>
+    <t>―</t>
+  </si>
+  <si>
+    <t>年（2025など）</t>
+  </si>
+  <si>
+    <t>TINYINT</t>
+  </si>
+  <si>
+    <t>月（1～12）</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>日</t>
+  </si>
+  <si>
+    <t>日（1～31）</t>
   </si>
 </sst>
 </file>
@@ -396,7 +443,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,6 +454,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -763,10 +813,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BFEA9F-2CA5-4EE0-8BC5-2F7835461C99}">
-  <dimension ref="B1:K51"/>
+  <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -785,7 +835,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
@@ -827,7 +877,9 @@
       <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
@@ -835,7 +887,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>13</v>
+        <v>84</v>
       </c>
       <c r="H3" s="1">
         <v>32</v>
@@ -889,17 +941,17 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H5" s="1">
-        <v>255</v>
+        <v>30</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -911,23 +963,23 @@
         <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="1" t="s">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="H6" s="1">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.4">
@@ -937,23 +989,23 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="1">
-        <v>255</v>
+        <v>100</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.4">
@@ -963,10 +1015,10 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>17</v>
@@ -977,7 +1029,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.4">
@@ -987,25 +1039,25 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -1015,23 +1067,23 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -1041,101 +1093,89 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B13" t="s">
-        <v>66</v>
-      </c>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B15" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="C15" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G15" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="1">
-        <v>32</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="E16" s="1" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1147,19 +1187,21 @@
         <v>10</v>
       </c>
       <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1171,315 +1213,412 @@
         <v>10</v>
       </c>
       <c r="J17" s="1"/>
-      <c r="K17" s="1" t="s">
-        <v>49</v>
-      </c>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B18" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="1">
+        <v>32</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="1">
-        <v>32</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-      <c r="K19" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="1">
+        <v>32</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="1">
+        <v>6</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="H21" s="1">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="1">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="1">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" t="s">
-        <v>64</v>
+      <c r="B23" s="1">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="1">
+        <v>9</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="1">
         <v>1</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>9</v>
+      <c r="I24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B25" s="1">
-        <v>1</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H25" s="1">
-        <v>32</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K25" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="1">
+        <v>32</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="1">
+        <v>32</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H33" s="1">
         <v>32</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="1">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+      <c r="I33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="1" t="s">
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" s="1">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="1">
-        <v>4</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="1">
-        <v>5</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="1">
-        <v>32</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B30" s="1">
-        <v>6</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="1">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B33" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B34" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
-        <v>1</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>13</v>
@@ -1492,12 +1631,12 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1505,347 +1644,676 @@
         <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
       <c r="H36" s="1">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J36" s="1"/>
-      <c r="K36" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="K36" s="1"/>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="H37" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
+      <c r="J37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B38" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="H38" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B39" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B40" s="1">
+        <v>10</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B41" s="1">
+        <v>11</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B46" s="1">
+        <v>1</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H46" s="1">
         <v>32</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="2" t="s">
+      <c r="I46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H47" s="1">
+        <v>32</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H48" s="1">
+        <v>4</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B49" s="1">
+        <v>4</v>
+      </c>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H49" s="1">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B50" s="1">
+        <v>5</v>
+      </c>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H50" s="1">
+        <v>32</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="1">
+        <v>6</v>
+      </c>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B52" s="1">
+        <v>7</v>
+      </c>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C56" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D56" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G56" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="H56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B44" s="3">
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="3">
         <v>1</v>
       </c>
-      <c r="C44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3" t="s">
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" s="3" t="s">
+      <c r="F57" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H44" s="3">
+      <c r="H57" s="3">
         <v>32</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3" t="s">
+      <c r="I57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B45" s="3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="3">
         <v>2</v>
       </c>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="3" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="3">
+      <c r="H58" s="3">
         <v>32</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B46" s="3">
+      <c r="I58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="3">
         <v>3</v>
       </c>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="3">
+        <v>100</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B60" s="3">
+        <v>4</v>
+      </c>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F60" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="3">
-        <v>255</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3" t="s">
+      <c r="G60" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H60" s="3"/>
+      <c r="I60" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J60" s="3"/>
+      <c r="K60" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B47" s="3">
-        <v>4</v>
-      </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3" t="s">
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B61" s="3">
+        <v>5</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="G61" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H61" s="3"/>
+      <c r="I61" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K61" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3" t="s">
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B62" s="3">
+        <v>6</v>
+      </c>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B48" s="3">
-        <v>5</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3" t="s">
+      <c r="F62" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B63" s="3">
+        <v>7</v>
+      </c>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="H63" s="3"/>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+      <c r="K63" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B64" s="3">
+        <v>8</v>
+      </c>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="G64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B49" s="3">
-        <v>6</v>
-      </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3">
-        <v>50</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K49" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B50" s="3">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F50" s="3" t="s">
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+      <c r="K64" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B51" s="3">
-        <v>8</v>
-      </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="E30:F30">
+  <conditionalFormatting sqref="E36:F36">
     <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37:F37">
+  <conditionalFormatting sqref="E48:F48">
     <cfRule type="duplicateValues" dxfId="2" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="G36">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G37">
+  <conditionalFormatting sqref="G48">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5ADF8F8-3FCE-456E-9B9D-730EF457A2DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505702E-80E9-4C81-9DF4-7542933E899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1143CB87-DFAC-4231-B447-610C66810365}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
   <si>
     <t>順番</t>
   </si>
@@ -369,6 +369,10 @@
   </si>
   <si>
     <t>日（1～31）</t>
+  </si>
+  <si>
+    <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -443,7 +447,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -454,9 +458,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -815,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BFEA9F-2CA5-4EE0-8BC5-2F7835461C99}">
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
@@ -1112,18 +1113,6 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-    </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>64</v>
@@ -1324,7 +1313,7 @@
         <v>57</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
@@ -1447,30 +1436,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-    </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>62</v>
@@ -1794,30 +1759,6 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-    </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
         <v>90</v>
@@ -2036,30 +1977,6 @@
       <c r="K52" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-    </row>
-    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" t="s">

--- a/テーブル定義書.xlsx
+++ b/テーブル定義書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vf1ma\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505702E-80E9-4C81-9DF4-7542933E899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F839F40B-A22D-49CD-ABF5-F19535B386D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1143CB87-DFAC-4231-B447-610C66810365}"/>
+    <workbookView xWindow="31530" yWindow="885" windowWidth="21600" windowHeight="11295" xr2:uid="{1143CB87-DFAC-4231-B447-610C66810365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="105">
   <si>
     <t>順番</t>
   </si>
@@ -130,9 +130,6 @@
   </si>
   <si>
     <t>member</t>
-  </si>
-  <si>
-    <t>admin / member</t>
   </si>
   <si>
     <t>created_at</t>
@@ -372,6 +369,31 @@
   </si>
   <si>
     <t>SMALLINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>deleted_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除日時</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>admin / member</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除時に設定</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -447,7 +469,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -458,6 +480,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -816,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BFEA9F-2CA5-4EE0-8BC5-2F7835461C99}">
   <dimension ref="B1:K64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -836,7 +861,7 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.4">
@@ -888,7 +913,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H3" s="1">
         <v>32</v>
@@ -942,7 +967,7 @@
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H5" s="1">
         <v>30</v>
@@ -952,7 +977,7 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.4">
@@ -970,7 +995,7 @@
         <v>22</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H6" s="1">
         <v>100</v>
@@ -990,7 +1015,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1058,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.4">
@@ -1068,23 +1093,23 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.4">
@@ -1094,28 +1119,52 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.4">
@@ -1123,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>2</v>
@@ -1164,7 +1213,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>13</v>
@@ -1177,7 +1226,7 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.4">
@@ -1187,10 +1236,10 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>13</v>
@@ -1211,10 +1260,10 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>13</v>
@@ -1227,7 +1276,7 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.4">
@@ -1237,13 +1286,13 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1257,13 +1306,13 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H20" s="1">
         <v>32</v>
@@ -1273,7 +1322,7 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
@@ -1283,13 +1332,13 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H21" s="1">
         <v>3</v>
@@ -1307,13 +1356,13 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G22" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H22" s="1">
         <v>2</v>
@@ -1322,10 +1371,10 @@
         <v>10</v>
       </c>
       <c r="J22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
@@ -1335,13 +1384,13 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G23" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H23" s="1">
         <v>1</v>
@@ -1350,10 +1399,10 @@
         <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
@@ -1363,13 +1412,13 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H24" s="1">
         <v>1</v>
@@ -1378,10 +1427,10 @@
         <v>10</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.4">
@@ -1391,23 +1440,23 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.4">
@@ -1417,33 +1466,57 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>1</v>
@@ -1487,7 +1560,7 @@
         <v>11</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>13</v>
@@ -1500,7 +1573,7 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.4">
@@ -1510,10 +1583,10 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>13</v>
@@ -1534,10 +1607,10 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="F33" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>13</v>
@@ -1550,7 +1623,7 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.4">
@@ -1560,13 +1633,13 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -1580,7 +1653,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>16</v>
@@ -1596,7 +1669,7 @@
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.4">
@@ -1606,13 +1679,13 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="H36" s="1">
         <v>3</v>
@@ -1630,13 +1703,13 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="G37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H37" s="1">
         <v>2</v>
@@ -1645,10 +1718,10 @@
         <v>10</v>
       </c>
       <c r="J37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.4">
@@ -1658,13 +1731,13 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H38" s="1">
         <v>1</v>
@@ -1673,10 +1746,10 @@
         <v>10</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.4">
@@ -1686,13 +1759,13 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="F39" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="G39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H39" s="1">
         <v>1</v>
@@ -1701,10 +1774,10 @@
         <v>10</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.4">
@@ -1714,23 +1787,23 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F40" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.4">
@@ -1740,28 +1813,52 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F41" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G41" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B42" s="1">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.4">
@@ -1810,7 +1907,7 @@
         <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>13</v>
@@ -1823,7 +1920,7 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.4">
@@ -1833,7 +1930,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>16</v>
@@ -1849,7 +1946,7 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.4">
@@ -1859,10 +1956,10 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>13</v>
@@ -1883,13 +1980,13 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F49" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="G49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H49" s="1">
         <v>2</v>
@@ -1907,13 +2004,13 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H50" s="1">
         <v>32</v>
@@ -1923,7 +2020,7 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.4">
@@ -1933,23 +2030,23 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F51" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="G51" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K51" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="K51" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.4">
@@ -1959,28 +2056,28 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F52" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1" t="s">
         <v>10</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.4">
@@ -2029,7 +2126,7 @@
         <v>11</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>13</v>
@@ -2052,7 +2149,7 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>16</v>
@@ -2068,7 +2165,7 @@
       </c>
       <c r="J58" s="3"/>
       <c r="K58" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="2:11" x14ac:dyDescent="0.4">
@@ -2078,10 +2175,10 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>17</v>
@@ -2094,7 +2191,7 @@
       </c>
       <c r="J59" s="3"/>
       <c r="K59" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="2:11" x14ac:dyDescent="0.4">
@@ -2104,13 +2201,13 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>70</v>
-      </c>
       <c r="G60" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3" t="s">
@@ -2118,7 +2215,7 @@
       </c>
       <c r="J60" s="3"/>
       <c r="K60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="2:11" x14ac:dyDescent="0.4">
@@ -2128,23 +2225,23 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H61" s="3"/>
       <c r="I61" s="3" t="s">
         <v>10</v>
       </c>
       <c r="J61" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="2:11" x14ac:dyDescent="0.4">
@@ -2154,25 +2251,25 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="G62" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H62" s="3">
+        <v>10</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J62" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H62" s="3">
-        <v>10</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J62" s="3" t="s">
+      <c r="K62" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="63" spans="2:11" x14ac:dyDescent="0.4">
@@ -2182,19 +2279,19 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="2:11" x14ac:dyDescent="0.4">
@@ -2204,19 +2301,19 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="G64" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
       <c r="K64" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
